--- a/create_report.xlsx
+++ b/create_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
   <si>
     <t>ID</t>
   </si>
@@ -85,6 +85,408 @@
     <t>Photo</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>M6315461</t>
+  </si>
+  <si>
+    <t>50379684</t>
+  </si>
+  <si>
+    <t>MADHUKAR CHUNILAL JASANI &amp; DLL</t>
+  </si>
+  <si>
+    <t>9 JALAN OZ 31 OZANA COUNTRY RESORT 75000 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>  </t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>ALWI BIN AMIN</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>T0484240</t>
+  </si>
+  <si>
+    <t>16514879</t>
+  </si>
+  <si>
+    <t>S.U.K.M.</t>
+  </si>
+  <si>
+    <t>B-8-2  BLOK B RUMAH PANGSA UJONG PASIR  JALAN SEKOLAH UJONG PASIR 75050 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>62.51</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>T0031949</t>
+  </si>
+  <si>
+    <t>16514937</t>
+  </si>
+  <si>
+    <t>IBRAHIM BIN HUSIN.</t>
+  </si>
+  <si>
+    <t>B-9-2  BLOK B RUMAH PANGSA UJONG PASIR  JALAN SEKOLAH UJONG PASIR 75050 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>24.61</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>T0484241</t>
+  </si>
+  <si>
+    <t>16514952</t>
+  </si>
+  <si>
+    <t>B-5-2  BLOK B RUMAH PANGSA UJONG PASIR  JALAN SEKOLAH UJONG PASIR 75050 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>33.08</t>
+  </si>
+  <si>
+    <t>Mr wong</t>
+  </si>
+  <si>
+    <t> 0126123895 </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>T0484242</t>
+  </si>
+  <si>
+    <t>16514960</t>
+  </si>
+  <si>
+    <t>B-3-2  BLOK B RUMAH PANGSA UJONG PASIR  JALAN SEKOLAH UJONG PASIR 75050 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>50.06</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>T0484243</t>
+  </si>
+  <si>
+    <t>16514978</t>
+  </si>
+  <si>
+    <t>SUHAIMI BIN HASHIM.</t>
+  </si>
+  <si>
+    <t>B-1-2  BLOK B RUMAH PANGSA UJONG PASIR  JALAN SEKOLAH UJONG PASIR 75050 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>81.12</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>T0484244</t>
+  </si>
+  <si>
+    <t>16514994</t>
+  </si>
+  <si>
+    <t>B-12-1  BLOK B RUMAH PANGSA UJONG PASIR  JALAN SEKOLAH UJONG PASIR 75050 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>32.78</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>T0484245</t>
+  </si>
+  <si>
+    <t>16515025</t>
+  </si>
+  <si>
+    <t>ABD.RAHIM B.ISMAIL.</t>
+  </si>
+  <si>
+    <t>B-6-1  BLOK B RUMAH PANGSA UJONG PASIR  JALAN SEKOLAH UJONG PASIR 75050 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>50.05</t>
+  </si>
+  <si>
+    <t>Mr low</t>
+  </si>
+  <si>
+    <t>0166304769  </t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>T2761890</t>
+  </si>
+  <si>
+    <t>16515041</t>
+  </si>
+  <si>
+    <t>B-2-1  BLOK B RUMAH PANGSA UJONG PASIR  JALAN SEKOLAH UJONG PASIR 75050 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>16.16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>E0000736</t>
+  </si>
+  <si>
+    <t>15690886</t>
+  </si>
+  <si>
+    <t>ONG BUN SEONG DLL.</t>
+  </si>
+  <si>
+    <t>5100 JALAN DATO PALEMBANG 75150 MELAKA MELAKA  </t>
+  </si>
+  <si>
+    <t>95.38</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>E0259292</t>
+  </si>
+  <si>
+    <t>15705197</t>
+  </si>
+  <si>
+    <t>LOO MEI YING</t>
+  </si>
+  <si>
+    <t>8475 JALAN PADANG JAMBU 75150 MELAKA MELAKA  </t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>E0000928</t>
+  </si>
+  <si>
+    <t>15691306</t>
+  </si>
+  <si>
+    <t>S THURAISINGHAM</t>
+  </si>
+  <si>
+    <t>5311 BUKIT BARU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>E0001453</t>
+  </si>
+  <si>
+    <t>15691843</t>
+  </si>
+  <si>
+    <t>AZMI BIN ABU KASSIM</t>
+  </si>
+  <si>
+    <t>5612 BUKIT BARU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>54.06</t>
+  </si>
+  <si>
+    <t>Sopia</t>
+  </si>
+  <si>
+    <t>  01127583575</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Foreigner</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>E0015441</t>
+  </si>
+  <si>
+    <t>15703077</t>
+  </si>
+  <si>
+    <t>GOH JOON HOE</t>
+  </si>
+  <si>
+    <t>4748 BUKIT BARU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>48.83</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>E0259404</t>
+  </si>
+  <si>
+    <t>15705189</t>
+  </si>
+  <si>
+    <t>TAN JOCK ENG</t>
+  </si>
+  <si>
+    <t>5947 BUKIT BARU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>45.19</t>
+  </si>
+  <si>
+    <t> 0165987073 </t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>E0001352</t>
+  </si>
+  <si>
+    <t>15691868</t>
+  </si>
+  <si>
+    <t>TAN BOON KIM</t>
+  </si>
+  <si>
+    <t>5614 JALAN DATO PALEMBANG BUKIT BARU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>51.13</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>E0001939</t>
+  </si>
+  <si>
+    <t>15692353</t>
+  </si>
+  <si>
+    <t>LEE LEN</t>
+  </si>
+  <si>
+    <t>8075 JALAN DATO PALEMBANG BUKIT BARU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>E0000991</t>
+  </si>
+  <si>
+    <t>15691249</t>
+  </si>
+  <si>
+    <t>D A DEVADASON</t>
+  </si>
+  <si>
+    <t>5291 JALAN PENGHULU ABBAS BUKIT BARU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>105.16</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>E0015471</t>
+  </si>
+  <si>
+    <t>15703101</t>
+  </si>
+  <si>
+    <t>DALJEET CHAND</t>
+  </si>
+  <si>
+    <t>4751 JALAN PENGHULU ABBAS BUKIT BARU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>51.25</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>E0017672</t>
+  </si>
+  <si>
+    <t>15704042</t>
+  </si>
+  <si>
+    <t>DEO YEOK CHOON</t>
+  </si>
+  <si>
+    <t>6023 JALAN PENGHULU ABBAS BUKIT BARU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>88.73</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
@@ -100,30 +502,12 @@
     <t>C-6050 JALAN PENGHULU ABBAS BUKIT BARU 75150 MELAKA MELAKA </t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>0196693481  </t>
-  </si>
-  <si>
-    <t>  </t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>post box</t>
   </si>
   <si>
     <t>AHMAD KAMIL BIN MANSOR</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>T0907229</t>
   </si>
   <si>
@@ -139,7 +523,43 @@
     <t>251.04</t>
   </si>
   <si>
-    <t>25</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>T0907230</t>
+  </si>
+  <si>
+    <t>91350488</t>
+  </si>
+  <si>
+    <t>MD DAUD AWANG</t>
+  </si>
+  <si>
+    <t>A-1-4  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>181.96</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>T0907231</t>
+  </si>
+  <si>
+    <t>91350496</t>
+  </si>
+  <si>
+    <t>KAMAL BIN MOHAMED SAB</t>
+  </si>
+  <si>
+    <t>A-1-5  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>301.94</t>
+  </si>
+  <si>
+    <t>D20</t>
   </si>
   <si>
     <t>T0907232</t>
@@ -154,736 +574,436 @@
     <t>A-1-8  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
   </si>
   <si>
-    <t>domestic form</t>
-  </si>
-  <si>
-    <t>IWANG</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>T0178200</t>
-  </si>
-  <si>
-    <t>47159637</t>
-  </si>
-  <si>
-    <t>ROHAYATI BINTI OTHMAN</t>
-  </si>
-  <si>
-    <t>10 JALAN INDAH 3 TAMAN INDAH SEKSYEN 1 75150 MELAKA MELAKA </t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>T0907233</t>
+  </si>
+  <si>
+    <t>91350553</t>
+  </si>
+  <si>
+    <t>MAMAT BIN DOLLAH</t>
+  </si>
+  <si>
+    <t>A-1-11  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>368.24</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>T0907234</t>
+  </si>
+  <si>
+    <t>91350595</t>
+  </si>
+  <si>
+    <t>CHUA BONG SING</t>
+  </si>
+  <si>
+    <t>A-1-15  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>373.24</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>T0907235</t>
+  </si>
+  <si>
+    <t>91350629</t>
+  </si>
+  <si>
+    <t>UMMU SYATIRAH BINTI ABD. RAZAK</t>
+  </si>
+  <si>
+    <t>A-2-2  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>149.29</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>T0907236</t>
+  </si>
+  <si>
+    <t>91350694</t>
+  </si>
+  <si>
+    <t>LIM KIM HUA</t>
+  </si>
+  <si>
+    <t>A-2-9  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>174.74</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>T0907237</t>
+  </si>
+  <si>
+    <t>91350710</t>
+  </si>
+  <si>
+    <t>TAENG AH PANG</t>
+  </si>
+  <si>
+    <t>A-2-11  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>280.24</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>T0396350</t>
+  </si>
+  <si>
+    <t>91350728</t>
+  </si>
+  <si>
+    <t>CHEONG ANN</t>
+  </si>
+  <si>
+    <t>A-2-12  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
   </si>
   <si>
     <t>98.44</t>
   </si>
   <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Vaccant</t>
-  </si>
-  <si>
-    <t>NORDIN BIN HUSSAIN</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>T0255827</t>
-  </si>
-  <si>
-    <t>56884646</t>
-  </si>
-  <si>
-    <t>SITI RAIHANAH BINTI ZAINAL ABIDIN</t>
-  </si>
-  <si>
-    <t>21 JALAN INDAH 3/2 TAMAN INDAH SEKSYEN 3 BUKIT BARU 75150 MELAKA MELAKA </t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>T0907239</t>
+  </si>
+  <si>
+    <t>91350744</t>
+  </si>
+  <si>
+    <t>PENG BOON CHAM &amp; LAI CHWEE TEE</t>
+  </si>
+  <si>
+    <t>A-2-14  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>T0907240</t>
+  </si>
+  <si>
+    <t>91350843</t>
+  </si>
+  <si>
+    <t>AGNES LIM CHYE FONG</t>
+  </si>
+  <si>
+    <t>A-3-8  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>225.64</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>T2656847</t>
+  </si>
+  <si>
+    <t>91350850</t>
+  </si>
+  <si>
+    <t>TEO GEK HUA</t>
+  </si>
+  <si>
+    <t>A-3-9  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>64.49</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>T2656871</t>
+  </si>
+  <si>
+    <t>91350868</t>
+  </si>
+  <si>
+    <t>TEO KHIM HAN</t>
+  </si>
+  <si>
+    <t>A-3-10  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>64.51</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>T0907241</t>
+  </si>
+  <si>
+    <t>91350892</t>
+  </si>
+  <si>
+    <t>TEE SIEW LAI</t>
+  </si>
+  <si>
+    <t>A-3-13  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>200.19</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>T0907242</t>
+  </si>
+  <si>
+    <t>91350900</t>
+  </si>
+  <si>
+    <t>MOHAMMAD MOSTAKIM BIN MOHD NASIR</t>
+  </si>
+  <si>
+    <t>A-3-14  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>276.49</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>T1516561</t>
+  </si>
+  <si>
+    <t>91350918</t>
+  </si>
+  <si>
+    <t>MOHAMMAD IZZUDDIN BIN HALIMI</t>
+  </si>
+  <si>
+    <t>A-3-15  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>498.24</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>T0396353</t>
+  </si>
+  <si>
+    <t>91351122</t>
+  </si>
+  <si>
+    <t>SABTU BIN MUIT</t>
+  </si>
+  <si>
+    <t>A-G-4  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>123.84</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>T0907243</t>
+  </si>
+  <si>
+    <t>91351148</t>
+  </si>
+  <si>
+    <t>MOHD YUSOF AHMAD</t>
+  </si>
+  <si>
+    <t>A-G-6  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>327.34</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>T0907244</t>
+  </si>
+  <si>
+    <t>91351171</t>
+  </si>
+  <si>
+    <t>LASIM BIN LEMAN</t>
+  </si>
+  <si>
+    <t>A-G-9  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>149.24</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>T0907246</t>
+  </si>
+  <si>
+    <t>91351239</t>
+  </si>
+  <si>
+    <t>KASIM BIN LEMAN</t>
+  </si>
+  <si>
+    <t>A-G-15  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>227.39</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>T0396357</t>
+  </si>
+  <si>
+    <t>91351247</t>
+  </si>
+  <si>
+    <t>BAHAROM BIN MD DAUD</t>
+  </si>
+  <si>
+    <t>A-G-16  BLOCK A PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>T0396359</t>
+  </si>
+  <si>
+    <t>91351288</t>
+  </si>
+  <si>
+    <t>ABD LATIF BIN LAKI</t>
+  </si>
+  <si>
+    <t>B-1-4  BLOCK B PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>T2658856</t>
+  </si>
+  <si>
+    <t>91351353</t>
+  </si>
+  <si>
+    <t>ADZHLY BIN HARON</t>
+  </si>
+  <si>
+    <t>B-1-11  BLOCK B PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>T0396362</t>
+  </si>
+  <si>
+    <t>91351403</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FIKRI JILANI</t>
+  </si>
+  <si>
+    <t>B-1-16  BLOCK B PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
   </si>
   <si>
     <t>98.39</t>
   </si>
   <si>
-    <t>1145</t>
-  </si>
-  <si>
-    <t>T2665954</t>
-  </si>
-  <si>
-    <t>62364633</t>
-  </si>
-  <si>
-    <t>WONG JIA YI</t>
-  </si>
-  <si>
-    <t>28 JALAN AP 1 TAMAN ARA PERMAI BATU BERENDAM 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>94.24</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>Vacant</t>
-  </si>
-  <si>
-    <t>IRWAN RAZMIE BIN HARUN</t>
-  </si>
-  <si>
-    <t>1364</t>
-  </si>
-  <si>
-    <t>T0029377</t>
-  </si>
-  <si>
-    <t>15614068</t>
-  </si>
-  <si>
-    <t>NG PICK LIANG</t>
-  </si>
-  <si>
-    <t>49 JALAN BB 3 TAMAN BACHANG BARU 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>123.84</t>
-  </si>
-  <si>
-    <t>1399</t>
-  </si>
-  <si>
-    <t>T0029410</t>
-  </si>
-  <si>
-    <t>15616709</t>
-  </si>
-  <si>
-    <t>AMAN BIN UJANG DL</t>
-  </si>
-  <si>
-    <t>10 JALAN BB 8 TAMAN BACHANG BARU 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>30.96</t>
-  </si>
-  <si>
-    <t>1446</t>
-  </si>
-  <si>
-    <t>T0708701</t>
-  </si>
-  <si>
-    <t>53509261</t>
-  </si>
-  <si>
-    <t>MD YUNUS BIN SAHAT</t>
-  </si>
-  <si>
-    <t>6 JALAN BBP 3 TAMAN BATU BERENDAM PUTRA 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>149.29</t>
-  </si>
-  <si>
-    <t>1457</t>
-  </si>
-  <si>
-    <t>T0328182</t>
-  </si>
-  <si>
-    <t>75744888</t>
-  </si>
-  <si>
-    <t>MAZILA BINTI MOKHTAR</t>
-  </si>
-  <si>
-    <t>7 JALAN BBP 3 LORONG 3 TAMAN BATU BERENDAM PUTRA 75350 MELAKA MELAKA</t>
-  </si>
-  <si>
-    <t>1462</t>
-  </si>
-  <si>
-    <t>T2324027</t>
-  </si>
-  <si>
-    <t>75744730</t>
-  </si>
-  <si>
-    <t>LEM SWU HONG @ LIM SIEW FONG</t>
-  </si>
-  <si>
-    <t>10 JALAN BBP 3 LORONG 3 TAMAN BATU BERENDAM PUTRA 75350 MELAKA MELAKA</t>
-  </si>
-  <si>
-    <t>64.49</t>
-  </si>
-  <si>
-    <t>1481</t>
-  </si>
-  <si>
-    <t>T2324553</t>
-  </si>
-  <si>
-    <t>75744524</t>
-  </si>
-  <si>
-    <t>ADAWIYAH BINTI MD JANI</t>
-  </si>
-  <si>
-    <t>32 JALAN BBP 7 TAMAN BATU BERENDAM PUTRA 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>1483</t>
-  </si>
-  <si>
-    <t>T2324981</t>
-  </si>
-  <si>
-    <t>84746668</t>
-  </si>
-  <si>
-    <t>NORHAYATI BINTI MAMAT @ MAMAT</t>
-  </si>
-  <si>
-    <t>3 JALAN BBP 8 TAMAN BATU BERENDAM PUTRA 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>64.75</t>
-  </si>
-  <si>
-    <t>1511</t>
-  </si>
-  <si>
-    <t>T0127924</t>
-  </si>
-  <si>
-    <t>38545711</t>
-  </si>
-  <si>
-    <t>ROSMINAH BT AHMAD</t>
-  </si>
-  <si>
-    <t>5 LORONG 1 OFF JALAN JASA MERDEKA 34 TAMAN DATO THAMBY CHIK KARIM 75350 MELAKA MELAKA</t>
-  </si>
-  <si>
-    <t>1515</t>
-  </si>
-  <si>
-    <t>T0127928</t>
-  </si>
-  <si>
-    <t>38545901</t>
-  </si>
-  <si>
-    <t>JALINA BINTI KARIM</t>
-  </si>
-  <si>
-    <t>4 LORONG 2 OFF JALAN JASA MERDEKA 34 TAMAN DATO THAMBY CHIK KARIM 75350 MELAKA MELAKA</t>
-  </si>
-  <si>
-    <t>117.94</t>
-  </si>
-  <si>
-    <t>1667</t>
-  </si>
-  <si>
-    <t>T0177525</t>
-  </si>
-  <si>
-    <t>47045919</t>
-  </si>
-  <si>
-    <t>NG AH CHIN</t>
-  </si>
-  <si>
-    <t>8 JALAN JASA MERDEKA 24 TAMAN DATO THAMBY CHIK KARIM 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>1685</t>
-  </si>
-  <si>
-    <t>T0147466</t>
-  </si>
-  <si>
-    <t>42900324</t>
-  </si>
-  <si>
-    <t>ISMAIL B WONGSO &amp; NOOR HASHIMAH BT MAHADI</t>
-  </si>
-  <si>
-    <t>70 JALAN JASA MERDEKA 26 TAMAN DATO THAMBY CHIK KARIM 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>1943</t>
-  </si>
-  <si>
-    <t>T0030258</t>
-  </si>
-  <si>
-    <t>15950017</t>
-  </si>
-  <si>
-    <t>WONG TECK AIK</t>
-  </si>
-  <si>
-    <t>4 JALAN MURNI 2 TAMAN MAS MERAH BATU BERENDAM 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>T0482378</t>
-  </si>
-  <si>
-    <t>15950215</t>
-  </si>
-  <si>
-    <t>TEH KIM SENG</t>
-  </si>
-  <si>
-    <t>1 JALAN MURNI 8 TAMAN MAS MERAH BATU BERENDAM 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>174.74</t>
-  </si>
-  <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>T0482360</t>
-  </si>
-  <si>
-    <t>15948961</t>
-  </si>
-  <si>
-    <t>ZAINAL ABIDIN NORDIN</t>
-  </si>
-  <si>
-    <t>2 JALAN MURNI 9 TAMAN MAS MERAH BATU BERENDAM 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>96.77</t>
-  </si>
-  <si>
-    <t>2041</t>
-  </si>
-  <si>
-    <t>T2451960</t>
-  </si>
-  <si>
-    <t>15966989</t>
-  </si>
-  <si>
-    <t>MARINA BT MOHAMAD.</t>
-  </si>
-  <si>
-    <t>17 JALAN MELAKA BARU 1/1 TAMAN MELAKA BARU BATU BERENDAM 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>64.48</t>
-  </si>
-  <si>
-    <t>ALWI BIN AMIN</t>
-  </si>
-  <si>
-    <t>2063</t>
-  </si>
-  <si>
-    <t>T2450357</t>
-  </si>
-  <si>
-    <t>15967870</t>
-  </si>
-  <si>
-    <t>MOHD TALIB BIN DOLAH</t>
-  </si>
-  <si>
-    <t>1 JALAN MELAKA BARU 2/1 TAMAN MELAKA BARU BATU BERENDAM 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>95.18</t>
-  </si>
-  <si>
-    <t>2065</t>
-  </si>
-  <si>
-    <t>T2452467</t>
-  </si>
-  <si>
-    <t>15967904</t>
-  </si>
-  <si>
-    <t>MOHD ALI AMIN DLL.</t>
-  </si>
-  <si>
-    <t>7 JALAN MELAKA BARU 2/1 TAMAN MELAKA BARU BATU BERENDAM 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>2072</t>
-  </si>
-  <si>
-    <t>T0461122</t>
-  </si>
-  <si>
-    <t>15968423</t>
-  </si>
-  <si>
-    <t>NOR AISHAH BTE JAAFAR</t>
-  </si>
-  <si>
-    <t>17 JALAN MELAKA BARU 2/3 TAMAN MELAKA BARU BATU BERENDAM 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>121.44</t>
-  </si>
-  <si>
-    <t>2258</t>
-  </si>
-  <si>
-    <t>T0030392</t>
-  </si>
-  <si>
-    <t>15966443</t>
-  </si>
-  <si>
-    <t>JEYARAMAN A/L RAMASAMY &amp; KARLIAMAH A/P K</t>
-  </si>
-  <si>
-    <t>91 JALAN MELAKA BARU 3/9 TAMAN MELAKA BARU BATU BERENDAM 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>30.98</t>
-  </si>
-  <si>
-    <t>2262</t>
-  </si>
-  <si>
-    <t>T0030394</t>
-  </si>
-  <si>
-    <t>15966575</t>
-  </si>
-  <si>
-    <t>LAU YOON TECK LAU CHOON ENG</t>
-  </si>
-  <si>
-    <t>65 JALAN MELAKA BARU 3/9 TAMAN MELAKA BARU BATU BERENDAM 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>2263</t>
-  </si>
-  <si>
-    <t>T2449601</t>
-  </si>
-  <si>
-    <t>15966658</t>
-  </si>
-  <si>
-    <t>MELAKA BARU SDN BHD</t>
-  </si>
-  <si>
-    <t>49 JALAN MELAKA BARU 3/9 TAMAN MELAKA BARU BATU BERENDAM 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>18.21</t>
-  </si>
-  <si>
-    <t>3333</t>
-  </si>
-  <si>
-    <t>T2707709</t>
-  </si>
-  <si>
-    <t>44434942</t>
-  </si>
-  <si>
-    <t>TAN SIEW GEOK</t>
-  </si>
-  <si>
-    <t>29 JALAN MJ 5 TAMAN MERDEKA JAYA 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>3359</t>
-  </si>
-  <si>
-    <t>T0689250</t>
-  </si>
-  <si>
-    <t>51756906</t>
-  </si>
-  <si>
-    <t>JALILAH BINTI ISHAK</t>
-  </si>
-  <si>
-    <t>41 JALAN MJ 6 TAMAN MERDEKA JAYA 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>174.72</t>
-  </si>
-  <si>
-    <t>3721</t>
-  </si>
-  <si>
-    <t>T0030533</t>
-  </si>
-  <si>
-    <t>15993702</t>
-  </si>
-  <si>
-    <t>FAM SEE MOY</t>
-  </si>
-  <si>
-    <t>4 JALAN SERI WANGSA TAMAN SERI WANGSA 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>3727</t>
-  </si>
-  <si>
-    <t>T0030541</t>
-  </si>
-  <si>
-    <t>15994387</t>
-  </si>
-  <si>
-    <t>OH BOON HOCK</t>
-  </si>
-  <si>
-    <t>51 JALAN SERI WANGSA TAMAN SERI WANGSA 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>3734</t>
-  </si>
-  <si>
-    <t>T0482693</t>
-  </si>
-  <si>
-    <t>15995673</t>
-  </si>
-  <si>
-    <t>PUA KIEN CHOON</t>
-  </si>
-  <si>
-    <t>16 JALAN SERI WANGSA 14 TAMAN SERI WANGSA 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>3735</t>
-  </si>
-  <si>
-    <t>T2466690</t>
-  </si>
-  <si>
-    <t>15995681</t>
-  </si>
-  <si>
-    <t>DARREL TAN SOO SIANG</t>
-  </si>
-  <si>
-    <t>14 JALAN SERI WANGSA 14 TAMAN SERI WANGSA 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>3782</t>
-  </si>
-  <si>
-    <t>T0124822</t>
-  </si>
-  <si>
-    <t>37990827</t>
-  </si>
-  <si>
-    <t>MOHD NIZAM ABHAMID</t>
-  </si>
-  <si>
-    <t>25 JALAN SB 1 TAMAN SUTERA BELIA 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>3791</t>
-  </si>
-  <si>
-    <t>T0124829</t>
-  </si>
-  <si>
-    <t>37991189</t>
-  </si>
-  <si>
-    <t>LIOW KIM SIN</t>
-  </si>
-  <si>
-    <t>97 JALAN SB 1 TAMAN SUTERA BELIA 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>3794</t>
-  </si>
-  <si>
-    <t>T0261029</t>
-  </si>
-  <si>
-    <t>57615569</t>
-  </si>
-  <si>
-    <t>GAN BOCK KIM</t>
-  </si>
-  <si>
-    <t>113 JALAN SB 1 TAMAN SUTERA BELIA 75350 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>5583</t>
-  </si>
-  <si>
-    <t>E0015208</t>
-  </si>
-  <si>
-    <t>15722770</t>
-  </si>
-  <si>
-    <t>THYE AH KAU</t>
-  </si>
-  <si>
-    <t>611F JALAN DELIMA 13 TAMAN BUKIT MELAKA BUKIT BERUANG 75450 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>36.62</t>
-  </si>
-  <si>
-    <t>5594</t>
-  </si>
-  <si>
-    <t>M8455714</t>
-  </si>
-  <si>
-    <t>15726722</t>
-  </si>
-  <si>
-    <t>LIM KIM WHEE &amp; SEE CHENG FONG (P)</t>
-  </si>
-  <si>
-    <t>677D JALAN DELIMA 27 TAMAN BUKIT MELAKA BUKIT BERUANG 75450 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>84.36</t>
-  </si>
-  <si>
-    <t>5603</t>
-  </si>
-  <si>
-    <t>T0120944</t>
-  </si>
-  <si>
-    <t>37150174</t>
-  </si>
-  <si>
-    <t>MOHD MASA'UD MARZUKI</t>
-  </si>
-  <si>
-    <t>10 JALAN BUNGA RAYA 1 TAMAN BUNGA RAYA BUKIT BERUANG 75450 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>5604</t>
-  </si>
-  <si>
-    <t>T2546665</t>
-  </si>
-  <si>
-    <t>37150182</t>
-  </si>
-  <si>
-    <t>RASHID BIN SUWANDI</t>
-  </si>
-  <si>
-    <t>12 JALAN BUNGA RAYA 1 TAMAN BUNGA RAYA BUKIT BERUANG 75450 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>74.44</t>
-  </si>
-  <si>
-    <t>5613</t>
-  </si>
-  <si>
-    <t>T0029856</t>
-  </si>
-  <si>
-    <t>15787047</t>
-  </si>
-  <si>
-    <t>ABDUL MAJID &amp; RAHMAH.</t>
-  </si>
-  <si>
-    <t>402-E JALAN BUNGA RAYA 3/2 TAMAN BUNGA RAYA BUKIT BERUANG 75450 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>6064</t>
-  </si>
-  <si>
-    <t>T2730028</t>
-  </si>
-  <si>
-    <t>92469261</t>
-  </si>
-  <si>
-    <t>MOHD NASER B MARZUKE</t>
-  </si>
-  <si>
-    <t>71 JALAN MERAK EMAS 15 TAMAN MERAK EMAS 75450 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>74.72</t>
-  </si>
-  <si>
-    <t>6157</t>
-  </si>
-  <si>
-    <t>T0142823</t>
-  </si>
-  <si>
-    <t>41862491</t>
-  </si>
-  <si>
-    <t>SIAH MEE YEEN</t>
-  </si>
-  <si>
-    <t>40 JALAN MERAK MAS 6 TAMAN MERAK MAS BUKIT KATIL 75450 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>O5</t>
-  </si>
-  <si>
-    <t>6943</t>
-  </si>
-  <si>
-    <t>T0180064</t>
-  </si>
-  <si>
-    <t>47411400</t>
-  </si>
-  <si>
-    <t>KHOO TEA WAH</t>
-  </si>
-  <si>
-    <t>31 JALAN SI 8 TAMAN SAUJANA INDAH 75450 MELAKA MELAKA </t>
-  </si>
-  <si>
-    <t>100.19</t>
-  </si>
-  <si>
-    <t>6957</t>
-  </si>
-  <si>
-    <t>T2740864</t>
-  </si>
-  <si>
-    <t>79487427</t>
-  </si>
-  <si>
-    <t>CHEANG TONG MOY</t>
-  </si>
-  <si>
-    <t>3 JALAN SI 8 LORONG 2 TAMAN SAUJANA INDAH 75450 MELAKA MELAKA</t>
+    <t>47</t>
+  </si>
+  <si>
+    <t>T0396363</t>
+  </si>
+  <si>
+    <t>91351411</t>
+  </si>
+  <si>
+    <t>SALWANA BTE MOHD AMIN</t>
+  </si>
+  <si>
+    <t>B-1-17  BLOCK B PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>98.4</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>T0907247</t>
+  </si>
+  <si>
+    <t>91351445</t>
+  </si>
+  <si>
+    <t>ADRIAN LEE KHEE LONG</t>
+  </si>
+  <si>
+    <t>B-2-3  BLOCK B PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>T0907248</t>
+  </si>
+  <si>
+    <t>91351460</t>
+  </si>
+  <si>
+    <t>CHIN PIK YING</t>
+  </si>
+  <si>
+    <t>B-2-5  BLOCK B PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>T0907249</t>
+  </si>
+  <si>
+    <t>91351478</t>
+  </si>
+  <si>
+    <t>WONG AI LY</t>
+  </si>
+  <si>
+    <t>B-2-6  BLOCK B PANGSAPURI PADANG JAMBU 75150 MELAKA MELAKA </t>
+  </si>
+  <si>
+    <t>174.71</t>
   </si>
 </sst>
 </file>
@@ -927,7 +1047,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf applyFont="1" fontId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -1047,17 +1167,17 @@
         <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1065,19 +1185,19 @@
         <v>30</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W2" s="0" t="s">
         <v>23</v>
@@ -1085,19 +1205,19 @@
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>30</v>
@@ -1118,17 +1238,17 @@
         <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P3" s="1" t="s">
         <v>30</v>
       </c>
@@ -1136,19 +1256,19 @@
         <v>30</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W3" s="0" t="s">
         <v>23</v>
@@ -1156,50 +1276,50 @@
     </row>
     <row r="4" spans="1:23" ht="30" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1207,19 +1327,19 @@
         <v>30</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W4" s="0" t="s">
         <v>23</v>
@@ -1227,50 +1347,50 @@
     </row>
     <row r="5" spans="1:23" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1278,19 +1398,19 @@
         <v>30</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W5" s="0" t="s">
         <v>23</v>
@@ -1298,50 +1418,50 @@
     </row>
     <row r="6" spans="1:23" ht="30" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1349,19 +1469,19 @@
         <v>30</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W6" s="0" t="s">
         <v>23</v>
@@ -1369,50 +1489,50 @@
     </row>
     <row r="7" spans="1:23" ht="30" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1420,19 +1540,19 @@
         <v>30</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W7" s="0" t="s">
         <v>23</v>
@@ -1440,70 +1560,70 @@
     </row>
     <row r="8" spans="1:23" ht="30" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="W8" s="0" t="s">
         <v>23</v>
@@ -1511,19 +1631,19 @@
     </row>
     <row r="9" spans="1:23" ht="30" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>30</v>
@@ -1538,23 +1658,23 @@
         <v>31</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1562,19 +1682,19 @@
         <v>30</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="W9" s="0" t="s">
         <v>23</v>
@@ -1582,19 +1702,19 @@
     </row>
     <row r="10" spans="1:23" ht="30" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>30</v>
@@ -1609,23 +1729,23 @@
         <v>31</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1633,19 +1753,19 @@
         <v>30</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="W10" s="0" t="s">
         <v>23</v>
@@ -1653,19 +1773,19 @@
     </row>
     <row r="11" spans="1:23" ht="30" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>30</v>
@@ -1680,13 +1800,13 @@
         <v>31</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>30</v>
@@ -1695,7 +1815,7 @@
         <v>30</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>30</v>
@@ -1704,19 +1824,19 @@
         <v>30</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="W11" s="0" t="s">
         <v>23</v>
@@ -1724,19 +1844,19 @@
     </row>
     <row r="12" spans="1:23" ht="30" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>30</v>
@@ -1751,13 +1871,13 @@
         <v>31</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>30</v>
@@ -1766,7 +1886,7 @@
         <v>30</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>30</v>
@@ -1775,19 +1895,19 @@
         <v>30</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="W12" s="0" t="s">
         <v>23</v>
@@ -1795,19 +1915,19 @@
     </row>
     <row r="13" spans="1:23" ht="30" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>30</v>
@@ -1822,23 +1942,23 @@
         <v>31</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1846,19 +1966,19 @@
         <v>30</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="W13" s="0" t="s">
         <v>23</v>
@@ -1866,70 +1986,70 @@
     </row>
     <row r="14" spans="1:23" ht="30" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="S14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="W14" s="0" t="s">
         <v>23</v>
@@ -1937,19 +2057,19 @@
     </row>
     <row r="15" spans="1:23" ht="30" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>30</v>
@@ -1964,13 +2084,13 @@
         <v>31</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>30</v>
@@ -1979,7 +2099,7 @@
         <v>30</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>30</v>
@@ -1988,19 +2108,19 @@
         <v>30</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="W15" s="0" t="s">
         <v>23</v>
@@ -2008,50 +2128,50 @@
     </row>
     <row r="16" spans="1:23" ht="30" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="P16" s="1" t="s">
         <v>30</v>
       </c>
@@ -2059,19 +2179,19 @@
         <v>30</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="W16" s="0" t="s">
         <v>23</v>
@@ -2079,19 +2199,19 @@
     </row>
     <row r="17" spans="1:23" ht="30" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>30</v>
@@ -2106,13 +2226,13 @@
         <v>31</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>30</v>
@@ -2121,7 +2241,7 @@
         <v>30</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>30</v>
@@ -2130,19 +2250,19 @@
         <v>30</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="W17" s="0" t="s">
         <v>23</v>
@@ -2150,19 +2270,19 @@
     </row>
     <row r="18" spans="1:23" ht="30" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>30</v>
@@ -2177,13 +2297,13 @@
         <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>30</v>
@@ -2192,7 +2312,7 @@
         <v>30</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>30</v>
@@ -2201,19 +2321,19 @@
         <v>30</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="W18" s="0" t="s">
         <v>23</v>
@@ -2221,19 +2341,19 @@
     </row>
     <row r="19" spans="1:23" ht="30" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>30</v>
@@ -2248,13 +2368,13 @@
         <v>31</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>30</v>
@@ -2263,7 +2383,7 @@
         <v>30</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>30</v>
@@ -2272,19 +2392,19 @@
         <v>30</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="W19" s="0" t="s">
         <v>23</v>
@@ -2292,19 +2412,19 @@
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>30</v>
@@ -2319,13 +2439,13 @@
         <v>31</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>30</v>
@@ -2334,7 +2454,7 @@
         <v>30</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>30</v>
@@ -2343,19 +2463,19 @@
         <v>30</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="W20" s="0" t="s">
         <v>23</v>
@@ -2363,19 +2483,19 @@
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>30</v>
@@ -2390,13 +2510,13 @@
         <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>30</v>
@@ -2405,7 +2525,7 @@
         <v>30</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>30</v>
@@ -2414,19 +2534,19 @@
         <v>30</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="W21" s="0" t="s">
         <v>23</v>
@@ -2434,19 +2554,19 @@
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>30</v>
@@ -2461,23 +2581,23 @@
         <v>31</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P22" s="1" t="s">
         <v>30</v>
       </c>
@@ -2485,19 +2605,19 @@
         <v>30</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="W22" s="0" t="s">
         <v>23</v>
@@ -2505,19 +2625,19 @@
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>30</v>
@@ -2532,23 +2652,23 @@
         <v>31</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P23" s="1" t="s">
         <v>30</v>
       </c>
@@ -2556,19 +2676,19 @@
         <v>30</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="W23" s="0" t="s">
         <v>23</v>
@@ -2576,19 +2696,19 @@
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>30</v>
@@ -2603,23 +2723,23 @@
         <v>31</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="P24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2627,19 +2747,19 @@
         <v>30</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="W24" s="0" t="s">
         <v>23</v>
@@ -2647,19 +2767,19 @@
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>30</v>
@@ -2674,23 +2794,23 @@
         <v>31</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P25" s="1" t="s">
         <v>30</v>
       </c>
@@ -2698,19 +2818,19 @@
         <v>30</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="W25" s="0" t="s">
         <v>23</v>
@@ -2718,19 +2838,19 @@
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>30</v>
@@ -2745,23 +2865,23 @@
         <v>31</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P26" s="1" t="s">
         <v>30</v>
       </c>
@@ -2769,19 +2889,19 @@
         <v>30</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="W26" s="0" t="s">
         <v>23</v>
@@ -2789,19 +2909,19 @@
     </row>
     <row r="27" spans="1:23" ht="30" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>30</v>
@@ -2816,23 +2936,23 @@
         <v>31</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P27" s="1" t="s">
         <v>30</v>
       </c>
@@ -2840,19 +2960,19 @@
         <v>30</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="W27" s="0" t="s">
         <v>23</v>
@@ -2860,70 +2980,70 @@
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U28" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="V28" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="W28" s="0" t="s">
         <v>23</v>
@@ -2931,19 +3051,19 @@
     </row>
     <row r="29" spans="1:23" ht="30" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>30</v>
@@ -2958,23 +3078,23 @@
         <v>31</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="P29" s="1" t="s">
         <v>30</v>
       </c>
@@ -2982,19 +3102,19 @@
         <v>30</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="W29" s="0" t="s">
         <v>23</v>
@@ -3002,19 +3122,19 @@
     </row>
     <row r="30" spans="1:23" ht="30" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>30</v>
@@ -3029,23 +3149,23 @@
         <v>31</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="P30" s="1" t="s">
         <v>30</v>
       </c>
@@ -3053,19 +3173,19 @@
         <v>30</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="W30" s="0" t="s">
         <v>23</v>
@@ -3073,19 +3193,19 @@
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>30</v>
@@ -3100,23 +3220,23 @@
         <v>31</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P31" s="1" t="s">
         <v>30</v>
       </c>
@@ -3124,19 +3244,19 @@
         <v>30</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="W31" s="0" t="s">
         <v>23</v>
@@ -3144,19 +3264,19 @@
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>30</v>
@@ -3171,23 +3291,23 @@
         <v>31</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P32" s="1" t="s">
         <v>30</v>
       </c>
@@ -3195,19 +3315,19 @@
         <v>30</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="W32" s="0" t="s">
         <v>23</v>
@@ -3215,19 +3335,19 @@
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>30</v>
@@ -3242,23 +3362,23 @@
         <v>31</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P33" s="1" t="s">
         <v>30</v>
       </c>
@@ -3266,19 +3386,19 @@
         <v>30</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="W33" s="0" t="s">
         <v>23</v>
@@ -3286,19 +3406,19 @@
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>30</v>
@@ -3313,43 +3433,43 @@
         <v>31</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P34" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="W34" s="0" t="s">
         <v>23</v>
@@ -3357,19 +3477,19 @@
     </row>
     <row r="35" spans="1:23" ht="30" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>30</v>
@@ -3384,23 +3504,23 @@
         <v>31</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="P35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3408,19 +3528,19 @@
         <v>30</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="W35" s="0" t="s">
         <v>23</v>
@@ -3428,19 +3548,19 @@
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>30</v>
@@ -3455,23 +3575,23 @@
         <v>31</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P36" s="1" t="s">
         <v>30</v>
       </c>
@@ -3479,19 +3599,19 @@
         <v>30</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="W36" s="0" t="s">
         <v>23</v>
@@ -3499,19 +3619,19 @@
     </row>
     <row r="37" spans="1:23" ht="30" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>30</v>
@@ -3526,23 +3646,23 @@
         <v>31</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P37" s="1" t="s">
         <v>30</v>
       </c>
@@ -3550,19 +3670,19 @@
         <v>30</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="W37" s="0" t="s">
         <v>23</v>
@@ -3570,19 +3690,19 @@
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>30</v>
@@ -3597,23 +3717,23 @@
         <v>31</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P38" s="1" t="s">
         <v>30</v>
       </c>
@@ -3621,19 +3741,19 @@
         <v>30</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="W38" s="0" t="s">
         <v>23</v>
@@ -3641,19 +3761,19 @@
     </row>
     <row r="39" spans="1:23" ht="30" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>30</v>
@@ -3668,23 +3788,23 @@
         <v>31</v>
       </c>
       <c r="J39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P39" s="1" t="s">
         <v>30</v>
       </c>
@@ -3692,19 +3812,19 @@
         <v>30</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="W39" s="0" t="s">
         <v>23</v>
@@ -3712,19 +3832,19 @@
     </row>
     <row r="40" spans="1:23" ht="30" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>30</v>
@@ -3739,23 +3859,23 @@
         <v>31</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P40" s="1" t="s">
         <v>30</v>
       </c>
@@ -3763,19 +3883,19 @@
         <v>30</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="W40" s="0" t="s">
         <v>23</v>
@@ -3783,19 +3903,19 @@
     </row>
     <row r="41" spans="1:23" ht="30" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>30</v>
@@ -3810,23 +3930,23 @@
         <v>31</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P41" s="1" t="s">
         <v>30</v>
       </c>
@@ -3834,19 +3954,19 @@
         <v>30</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="W41" s="0" t="s">
         <v>23</v>
@@ -3854,19 +3974,19 @@
     </row>
     <row r="42" spans="1:23" ht="30" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>30</v>
@@ -3881,23 +4001,23 @@
         <v>31</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="P42" s="1" t="s">
         <v>30</v>
       </c>
@@ -3905,19 +4025,19 @@
         <v>30</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="W42" s="0" t="s">
         <v>23</v>
@@ -3925,19 +4045,19 @@
     </row>
     <row r="43" spans="1:23" ht="30" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>30</v>
@@ -3952,23 +4072,23 @@
         <v>31</v>
       </c>
       <c r="J43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="P43" s="1" t="s">
         <v>30</v>
       </c>
@@ -3976,19 +4096,19 @@
         <v>30</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="W43" s="0" t="s">
         <v>23</v>
@@ -3996,19 +4116,19 @@
     </row>
     <row r="44" spans="1:23" ht="30" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>30</v>
@@ -4023,23 +4143,23 @@
         <v>31</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="P44" s="1" t="s">
         <v>30</v>
       </c>
@@ -4047,19 +4167,19 @@
         <v>30</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="W44" s="0" t="s">
         <v>23</v>
@@ -4067,19 +4187,19 @@
     </row>
     <row r="45" spans="1:23" ht="30" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>30</v>
@@ -4094,23 +4214,23 @@
         <v>31</v>
       </c>
       <c r="J45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="P45" s="1" t="s">
         <v>30</v>
       </c>
@@ -4118,19 +4238,19 @@
         <v>30</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="W45" s="0" t="s">
         <v>23</v>
@@ -4138,19 +4258,19 @@
     </row>
     <row r="46" spans="1:23" ht="30" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>30</v>
@@ -4165,23 +4285,23 @@
         <v>31</v>
       </c>
       <c r="J46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="P46" s="1" t="s">
         <v>30</v>
       </c>
@@ -4189,19 +4309,19 @@
         <v>30</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="W46" s="0" t="s">
         <v>23</v>
@@ -4209,19 +4329,19 @@
     </row>
     <row r="47" spans="1:23" ht="30" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>30</v>
@@ -4236,23 +4356,23 @@
         <v>31</v>
       </c>
       <c r="J47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="P47" s="1" t="s">
         <v>30</v>
       </c>
@@ -4260,19 +4380,19 @@
         <v>30</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="W47" s="0" t="s">
         <v>23</v>
@@ -4280,19 +4400,19 @@
     </row>
     <row r="48" spans="1:23" ht="30" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>30</v>
@@ -4307,23 +4427,23 @@
         <v>31</v>
       </c>
       <c r="J48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="P48" s="1" t="s">
         <v>30</v>
       </c>
@@ -4331,19 +4451,19 @@
         <v>30</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="W48" s="0" t="s">
         <v>23</v>
@@ -4351,19 +4471,19 @@
     </row>
     <row r="49" spans="1:23" ht="30" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>30</v>
@@ -4378,23 +4498,23 @@
         <v>31</v>
       </c>
       <c r="J49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="P49" s="1" t="s">
         <v>30</v>
       </c>
@@ -4402,19 +4522,19 @@
         <v>30</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>279</v>
+        <v>152</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="W49" s="0" t="s">
         <v>23</v>
@@ -4422,19 +4542,19 @@
     </row>
     <row r="50" spans="1:23" ht="30" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>30</v>
@@ -4449,23 +4569,23 @@
         <v>31</v>
       </c>
       <c r="J50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P50" s="1" t="s">
         <v>30</v>
       </c>
@@ -4473,19 +4593,19 @@
         <v>30</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="W50" s="0" t="s">
         <v>23</v>
@@ -4493,19 +4613,19 @@
     </row>
     <row r="51" spans="1:23" ht="30" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>30</v>
@@ -4520,23 +4640,23 @@
         <v>31</v>
       </c>
       <c r="J51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="P51" s="1" t="s">
         <v>30</v>
       </c>
@@ -4544,19 +4664,19 @@
         <v>30</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="W51" s="0" t="s">
         <v>23</v>
